--- a/biology/Botanique/Lledoner_pelut/Lledoner_pelut.xlsx
+++ b/biology/Botanique/Lledoner_pelut/Lledoner_pelut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le lledoner pelut N ou lladoner est un cépage espagnol. C'est une mutation velue du grenache N.
 </t>
@@ -513,14 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Historique
-Le lledoner pelut N est une mutation velue du grenache survenue en Catalogne[1]; elle est très ancienne. Selon Lavignac[2], il serait arrivé en France dès le Moyen Âge, importé par des pèlerins de retour de Saint-Jacques-de-Compostelle.
-Des analyses génétiques sont venues confirmer l'origine du lledoner[3].
-Aire de répartition
-De son origine catalane, il a été introduit dans les vignobles de l'Aragon et de Castille-La Manche. 
-En France, il est en progression. Initialement cultivé dans le Roussillon, il a été introduit dans le Languedoc. Classé dans la plupart des AOC aux côtés du grenache. Il est passé de 212 ha en 1979 à 630 ha en 1994[4], essentiellement dans le vignoble du Languedoc-Roussillon.
-Variabilité génétique
-En France, deux clones ont été homologués, les numéros 1055 et 1056[3].
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le lledoner pelut N est une mutation velue du grenache survenue en Catalogne; elle est très ancienne. Selon Lavignac, il serait arrivé en France dès le Moyen Âge, importé par des pèlerins de retour de Saint-Jacques-de-Compostelle.
+Des analyses génétiques sont venues confirmer l'origine du lledoner.
 </t>
         </is>
       </c>
@@ -546,10 +558,87 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Aire de répartition</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De son origine catalane, il a été introduit dans les vignobles de l'Aragon et de Castille-La Manche. 
+En France, il est en progression. Initialement cultivé dans le Roussillon, il a été introduit dans le Languedoc. Classé dans la plupart des AOC aux côtés du grenache. Il est passé de 212 ha en 1979 à 630 ha en 1994, essentiellement dans le vignoble du Languedoc-Roussillon.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lledoner_pelut</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lledoner_pelut</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Variabilité génétique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, deux clones ont été homologués, les numéros 1055 et 1056.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lledoner_pelut</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lledoner_pelut</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Caractère ampélographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Bourgeonnement légèrement cotonneux.
 Jeunes feuilles vertes brillantes.
@@ -559,38 +648,113 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Lledoner_pelut</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Lledoner_pelut</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Aptitudes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Culturale
-Le lledoner est plus vigoureux que le grenache N. Il est aussi plus régulier en production grâce à une meilleure fécondation[5].
-Sensibilité aux maladies
-Il est plus sensible aux acariens.
-Œnologiques
-Il donne des vins proches de ceux du grenache. Cependant, le degré[4] comme la couleur[5] s'avèrent un peu inférieurs dans un certain nombre de cas. Comme pour le grenache, la qualité de son vin dépend beaucoup des conditions culturales. En conditions limitantes pour sa vigueur (terroir peu fertile, taille courte, prote-greffe adapté) il peut donner de remarquables vins rouges puissants et généreux et des vins rosés aromatiques, fins et amples.
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Culturale</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le lledoner est plus vigoureux que le grenache N. Il est aussi plus régulier en production grâce à une meilleure fécondation.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Lledoner_pelut</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lledoner_pelut</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Aptitudes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sensibilité aux maladies</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est plus sensible aux acariens.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Lledoner_pelut</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lledoner_pelut</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Aptitudes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Œnologiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il donne des vins proches de ceux du grenache. Cependant, le degré comme la couleur s'avèrent un peu inférieurs dans un certain nombre de cas. Comme pour le grenache, la qualité de son vin dépend beaucoup des conditions culturales. En conditions limitantes pour sa vigueur (terroir peu fertile, taille courte, prote-greffe adapté) il peut donner de remarquables vins rouges puissants et généreux et des vins rosés aromatiques, fins et amples.
 </t>
         </is>
       </c>
